--- a/biology/Botanique/Scille_de_printemps/Scille_de_printemps.xlsx
+++ b/biology/Botanique/Scille_de_printemps/Scille_de_printemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tractema verna
-La scille de printemps (Tractema verna (Huds.) Speta) est une plante à fleurs de petite taille appartenant à la famille des Liliaceae selon la classification classique, à celle des Hyacinthaceae selon la classification phylogénétique APG II (2003)[1] et à celle des Asparagaceae selon la classification phylogénétique APG III (2009)[2].
+La scille de printemps (Tractema verna (Huds.) Speta) est une plante à fleurs de petite taille appartenant à la famille des Liliaceae selon la classification classique, à celle des Hyacinthaceae selon la classification phylogénétique APG II (2003) et à celle des Asparagaceae selon la classification phylogénétique APG III (2009).
 Il s'agit d'une espèce européenne à distribution strictement atlantique. Elle se rencontre essentiellement sur les pelouses naturelles sèches et rases.
 Synonyme :
 Scilla verna Huds.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée vivace de petite taille (5 à 25 cm), glabre dans toutes ses parties, elle se développe à partir d'un petit bulbe de couleur blanchâtre. Situées à la base, les feuilles, au nombre de 3 à 6, sont linéaires (larges de 3 à 6 mm) et plutôt charnues. Les fleurs, qui apparaissent d'avril à juin, sont portées par une tige grêle et sont de couleur bleu violacé ; peu nombreuses, elles forment un petit corymbe à allure d'ombelle.
 </t>
@@ -548,10 +562,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Répartition
-La distribution de la scille de printemps, exclusivement ouest européenne, s'étend du Portugal à la Norvège, en incluant l'Espagne, la France, la Grande-Bretagne, l'Irlande et les îles Féroé[3].
-Au sud de cette aire, elle peut pénétrer plus ou moins profondément dans l'intérieur des terres : Espagne, moitié occidentale de la chaîne pyrénéenne, départements des Landes, de la Corrèze, de la Creuse. Plus au nord, c'est-à-dire à partir du Finistère, elle devient presque exclusivement littorale. Elle est rare au Portugal et évite très majoritairement les côtes de la Manche et de la mer du Nord[3].
-Habitat</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distribution de la scille de printemps, exclusivement ouest européenne, s'étend du Portugal à la Norvège, en incluant l'Espagne, la France, la Grande-Bretagne, l'Irlande et les îles Féroé.
+Au sud de cette aire, elle peut pénétrer plus ou moins profondément dans l'intérieur des terres : Espagne, moitié occidentale de la chaîne pyrénéenne, départements des Landes, de la Corrèze, de la Creuse. Plus au nord, c'est-à-dire à partir du Finistère, elle devient presque exclusivement littorale. Elle est rare au Portugal et évite très majoritairement les côtes de la Manche et de la mer du Nord.
+</t>
         </is>
       </c>
     </row>
